--- a/input/traffic/Persontraffic.xlsx
+++ b/input/traffic/Persontraffic.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\endemo\input\traffic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C13CFA8-4461-4825-8B88-4FC7F7DCA710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DC6486-412C-4F89-98F5-A144D8EF1623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="180" windowWidth="29040" windowHeight="17640" tabRatio="817" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="817" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Personkm_road_rail" sheetId="1" r:id="rId1"/>
+    <sheet name="Personkm_road_rail" sheetId="15" r:id="rId1"/>
     <sheet name="Passengerkm_flight" sheetId="5" r:id="rId2"/>
-    <sheet name="ModalSplit_car" sheetId="12" r:id="rId3"/>
-    <sheet name="ModalSplit_rail" sheetId="13" r:id="rId4"/>
-    <sheet name="ModalSplit_bus" sheetId="14" r:id="rId5"/>
-    <sheet name="EnergyperSource" sheetId="11" r:id="rId6"/>
+    <sheet name="ModalSplit_car_his" sheetId="12" r:id="rId3"/>
+    <sheet name="ModalSplit_rail_his" sheetId="13" r:id="rId4"/>
+    <sheet name="ModalSplit_bus_his" sheetId="14" r:id="rId5"/>
+    <sheet name="ModalSplit_car_user" sheetId="16" r:id="rId6"/>
+    <sheet name="ModalSplit_rail_user" sheetId="17" r:id="rId7"/>
+    <sheet name="ModalSplit_bus_user" sheetId="18" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="134">
   <si>
     <t>Country</t>
   </si>
@@ -259,34 +261,7 @@
     <t>year</t>
   </si>
   <si>
-    <t>restliche aus https://bikephreak.files.wordpress.com/2015/10/uba_studie_2012_umweltverkehr_4364.pdf</t>
-  </si>
-  <si>
     <t>https://bikephreak.files.wordpress.com/2015/10/uba_studie_2012_umweltverkehr_4364.pdf</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>rail</t>
-  </si>
-  <si>
-    <t>bus</t>
-  </si>
-  <si>
-    <t>Energieverbrauch verschiedener Verkehrsträger</t>
-  </si>
-  <si>
-    <t>flight</t>
-  </si>
-  <si>
-    <t>kWh/Pers.kilometer (flight: PJ/Pessengerkilometer)</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>https://www.lbst.de/download/2015/mks-kurzstudie-ee-im-verkehr.pdf</t>
   </si>
   <si>
     <t>https://op.europa.eu/en/publication-detail/-/publication/4b352d6f-b540-11e7-837e-01aa75ed71a1/language-en</t>
@@ -304,109 +279,16 @@
     <t>https://data.oecd.org/transport/passenger-transport.htm</t>
   </si>
   <si>
-    <t>OECD Passanger km total</t>
-  </si>
-  <si>
-    <t>OECD Passanger road km ab1998</t>
-  </si>
-  <si>
     <t>https://ec.europa.eu/eurostat/statistics-explained/index.php/Passenger_cars_in_the_EU</t>
   </si>
   <si>
-    <t>wie Italien?</t>
-  </si>
-  <si>
-    <t>https://www.forschungsinformationssystem.de/servlet/is/342234/</t>
-  </si>
-  <si>
-    <t>Elec</t>
-  </si>
-  <si>
-    <t>Kerosin</t>
-  </si>
-  <si>
-    <t>Diesel</t>
-  </si>
-  <si>
-    <t>Benzin</t>
-  </si>
-  <si>
-    <t>https://www.umweltbundesamt.de/sites/default/files/medien/384/bilder/dateien/5_abb_spezif_energieverbrauch-pv_2020-02-14.pdf</t>
-  </si>
-  <si>
-    <t>als % im Effizienzzugewinn?</t>
-  </si>
-  <si>
-    <t>https://www.energieagentur.nrw/klimaschutz/haushalt/bus_bahn</t>
-  </si>
-  <si>
-    <t>https://www.iea.org/data-and-statistics/charts/energy-intensity-of-passenger-transport-modes-2018</t>
-  </si>
-  <si>
-    <t>mit Tabelle zu erwarten, dass es der geringste Wert ist</t>
-  </si>
-  <si>
-    <t>https://nachhaltigwirtschaften.at/resources/sdz_pdf/berichte/schriftenreihe-2019-57-move2grid.pdf</t>
-  </si>
-  <si>
-    <t>Plug-in-Hybrid</t>
-  </si>
-  <si>
-    <t>ohne vorgelagerte Energiebereistellung, da dies die notwendige Energie zur Erzeugung des Kraftstoffes darstellt und in der chem. Industrie enthalten sein sollte</t>
-  </si>
-  <si>
-    <t>Hydrogen</t>
-  </si>
-  <si>
     <t>https://www.ceicdata.com/en/serbia/transport-and-storage-enterprises-operation-statistics/passenger-transport-person-km</t>
-  </si>
-  <si>
-    <t>EU Reference Szenario</t>
-  </si>
-  <si>
-    <t>https://www.lbst.de/news/2016_docs/FVV_H1086_Renewables-in-Transport-2050-Kraftstoffstudie_II.pdf</t>
-  </si>
-  <si>
-    <t>FCEV</t>
-  </si>
-  <si>
-    <t>Brensstoffzellenfahrzeuge</t>
-  </si>
-  <si>
-    <t>S. 115</t>
-  </si>
-  <si>
-    <t>für Weiterentwicklung im Effizienzszenario: Rechnen mit diesem Prozentualen Effizienzzugewinn</t>
   </si>
   <si>
     <t>Mrd. pkm</t>
   </si>
   <si>
     <t>Mil. pkm</t>
-  </si>
-  <si>
-    <t>Energy consumption kWh/pkm (flight: PJ/pkm)</t>
-  </si>
-  <si>
-    <t>ship</t>
-  </si>
-  <si>
-    <t>cars</t>
-  </si>
-  <si>
-    <t>rails</t>
-  </si>
-  <si>
-    <t>buses</t>
-  </si>
-  <si>
-    <t>flights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quelle: </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S. 15: Verbrauch nach Verkehrsträger</t>
   </si>
   <si>
     <t>Unit:</t>
@@ -451,25 +333,10 @@
     <t>Assumption:</t>
   </si>
   <si>
-    <t>same values as for Italy</t>
-  </si>
-  <si>
     <t>2018</t>
   </si>
   <si>
     <t>InternationalTransportForum_OECD_Passangerkm_total.xls</t>
-  </si>
-  <si>
-    <t>0.304 for Rail [4]</t>
-  </si>
-  <si>
-    <t>das gibt es nicht in daten</t>
-  </si>
-  <si>
-    <t>is it A1 or the source you gave?</t>
-  </si>
-  <si>
-    <t>In diesem Reiter stimmt die Angabe von der Quelle nicht. Siehe diesen Beispiel (Frankreich), sowie rechts das Bild (Zypern). Bitte aufs neue den gesamten Reiter durchgehen, ich habe mir schon viel Müghe gegeben, aber es stimmt einfach immer wieder nicht</t>
   </si>
   <si>
     <t>Eurostat</t>
@@ -531,19 +398,67 @@
   <si>
     <t>[3], A1</t>
   </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>[1], F3</t>
+  </si>
+  <si>
+    <t>OECD Data</t>
+  </si>
+  <si>
+    <t>https://data.oecd.org/transport/passenger-transport.htm#indicator-chart</t>
+  </si>
+  <si>
+    <t>Stand: 30.05.2023</t>
+  </si>
+  <si>
+    <t>https://www.worlddata.info/europe/luxembourg/transport.php</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>Passenger cars in the EU</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://bikephreak.files.wordpress.com/2015/10/uba_studie_2012_umweltverkehr_4364.pdf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0E+00"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,28 +495,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="7" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,7 +515,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -632,12 +525,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,12 +553,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -690,51 +576,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Komma" xfId="2" builtinId="3"/>
+  <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -749,499 +628,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>83651</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>161333</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{796C3949-0857-2F99-6CB6-F31720A3995A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12230099" y="1304148"/>
-          <a:ext cx="9199077" cy="6076358"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>157331</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>41278</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>176784</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13144949" y="9947278"/>
-          <a:ext cx="6835140" cy="2231006"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>472889</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>57330</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>207040</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>183955</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5840507" y="5010330"/>
-          <a:ext cx="7354151" cy="4698625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>2767</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>121472</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Grafik 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12496800" y="5135880"/>
-          <a:ext cx="6552381" cy="3580952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>90095</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>63893</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>13975</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>44877</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Grafik 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19935713" y="1397393"/>
-          <a:ext cx="6019880" cy="3409984"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>108473</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>291632</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>184292</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Grafik 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="5442473"/>
-          <a:ext cx="4135250" cy="2171319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>57374</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>610409</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>18936</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Grafik 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6970059" y="9772874"/>
-          <a:ext cx="5865968" cy="2819062"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>13446</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>12593</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>84403</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>150158</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Grafik 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6905064" y="774593"/>
-          <a:ext cx="6166957" cy="3757065"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>224119</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>69477</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>501861</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>20245</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Grafik 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13973737" y="1021977"/>
-          <a:ext cx="5611742" cy="4141768"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>380142</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Grafik 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B8E79ED-1221-41DA-BDC7-4ECAB35B24A3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:srcRect t="8476" b="3813"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="179294" y="2857499"/>
-          <a:ext cx="4044466" cy="2667001"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>78442</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>523007</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>61408</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Grafik 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1280059B-743F-4C6A-8A30-0A8A7A7E001B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="78442" y="7788088"/>
-          <a:ext cx="5050183" cy="6370320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1527,37 +913,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8096C4-565E-4773-BB3F-97526C7E31D4}">
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="11.5703125" style="3"/>
-    <col min="4" max="4" width="11.42578125" style="21"/>
+    <col min="3" max="3" width="11.453125" style="3"/>
+    <col min="4" max="4" width="11.453125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1565,57 +952,53 @@
         <v>2</v>
       </c>
       <c r="C2" s="4">
-        <f>140.1</f>
-        <v>140.1</v>
-      </c>
-      <c r="D2" s="20">
-        <v>2012</v>
+        <v>129.667</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="21">
         <f>(8917+1438)/1000</f>
         <v>10.355</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="13">
         <v>2017</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="13">
-        <f>(90049+9498)/1000</f>
-        <v>99.546999999999997</v>
-      </c>
-      <c r="D4" s="20">
-        <v>2017</v>
+      <c r="C4" s="21">
+        <v>91.355000000000004</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1623,17 +1006,16 @@
         <v>8</v>
       </c>
       <c r="C5" s="4">
-        <f>74.1</f>
-        <v>74.099999999999994</v>
-      </c>
-      <c r="D5" s="20">
-        <v>2012</v>
+        <v>73.197000000000003</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1644,14 +1026,14 @@
         <f>[1]Daten!$C$40</f>
         <v>1111.8</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="13">
         <v>2018</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1659,37 +1041,35 @@
         <v>12</v>
       </c>
       <c r="C7" s="4">
-        <f>2.9</f>
-        <v>2.9</v>
-      </c>
-      <c r="D7" s="20">
-        <v>2014</v>
+        <f>(2865+285)/1000</f>
+        <v>3.15</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="13">
-        <v>69</v>
-      </c>
-      <c r="D8" s="20">
-        <v>2015</v>
+      <c r="C8" s="21">
+        <f>(33686+1976)/1000</f>
+        <v>35.661999999999999</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
-      </c>
-      <c r="H8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1697,17 +1077,17 @@
         <v>16</v>
       </c>
       <c r="C9" s="4">
-        <f>43.1</f>
-        <v>43.1</v>
-      </c>
-      <c r="D9" s="20">
-        <v>2012</v>
+        <f>43.839</f>
+        <v>43.838999999999999</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1715,62 +1095,53 @@
         <v>18</v>
       </c>
       <c r="C10" s="4">
-        <f>384.3</f>
-        <v>384.3</v>
-      </c>
-      <c r="D10" s="20">
-        <v>2014</v>
+        <v>404.31299999999999</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="33">
-        <f>815.421+96.69</f>
-        <v>912.1110000000001</v>
-      </c>
-      <c r="D11" s="30">
-        <v>2014</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="F11" s="29">
-        <f>970.5</f>
-        <v>970.5</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>141</v>
-      </c>
+      <c r="C11" s="22">
+        <v>969.22400000000005</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="4"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="32">
-        <f>(31.862+745/1000)</f>
-        <v>32.606999999999999</v>
-      </c>
-      <c r="D12" s="20">
-        <v>2017</v>
+      <c r="C12" s="23">
+        <v>30.818999999999999</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -1778,105 +1149,90 @@
         <v>24</v>
       </c>
       <c r="C13" s="4">
-        <f>771.7</f>
-        <v>771.7</v>
-      </c>
-      <c r="D13" s="20">
-        <v>2013</v>
+        <v>859.03300000000002</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="14">
-        <f>C13</f>
-        <v>771.7</v>
-      </c>
-      <c r="D14" s="20">
-        <f>D13</f>
-        <v>2013</v>
+      <c r="C14" s="24">
+        <v>7.3010000000000002</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="E14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="N14" s="28" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="21">
         <f>(17813+624)/1000</f>
         <v>18.437000000000001</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="13">
         <v>2018</v>
       </c>
       <c r="E15" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="21">
         <f>(33200+354)/1000</f>
         <v>33.554000000000002</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>136</v>
+      <c r="D16" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>124</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="14">
-        <v>9</v>
-      </c>
-      <c r="D17" s="20">
-        <v>2015</v>
+      <c r="C17" s="24">
+        <f>304/1000</f>
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>138</v>
-      </c>
-      <c r="G17" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -1884,32 +1240,34 @@
         <v>34</v>
       </c>
       <c r="C18" s="4">
-        <f>77.9</f>
-        <v>77.900000000000006</v>
-      </c>
-      <c r="D18" s="20">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>82.63</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="13">
-        <v>1.982</v>
-      </c>
-      <c r="D19" s="20">
-        <v>2017</v>
+      <c r="C19" s="21">
+        <v>1.968</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -1917,14 +1275,16 @@
         <v>37</v>
       </c>
       <c r="C20" s="4">
-        <f>173.4</f>
-        <v>173.4</v>
-      </c>
-      <c r="D20" s="20">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>178.54900000000001</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -1935,11 +1295,14 @@
         <f>(13205+94757)/1000</f>
         <v>107.962</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="13">
         <v>2017</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
@@ -1947,14 +1310,16 @@
         <v>41</v>
       </c>
       <c r="C22" s="4">
-        <f>267.7</f>
-        <v>267.7</v>
-      </c>
-      <c r="D22" s="20">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>269.267</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
@@ -1962,30 +1327,36 @@
         <v>42</v>
       </c>
       <c r="C23" s="4">
-        <f>101</f>
-        <v>101</v>
-      </c>
-      <c r="D23" s="20">
+        <f>100.969</f>
+        <v>100.96899999999999</v>
+      </c>
+      <c r="D23" s="13">
         <v>2008</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="13">
-        <f>(5664+18177)/1000</f>
-        <v>23.841000000000001</v>
-      </c>
-      <c r="D24" s="20">
-        <v>2017</v>
+      <c r="C24" s="21">
+        <f>(5364+17471)/1000</f>
+        <v>22.835000000000001</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" t="s">
+        <v>84</v>
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
@@ -1993,14 +1364,17 @@
         <v>46</v>
       </c>
       <c r="C25" s="4">
-        <f>29.6</f>
-        <v>29.6</v>
-      </c>
-      <c r="D25" s="20">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <f>29.632</f>
+        <v>29.632000000000001</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
@@ -2008,29 +1382,33 @@
         <v>48</v>
       </c>
       <c r="C26" s="4">
-        <f>35.1</f>
-        <v>35.1</v>
-      </c>
-      <c r="D26" s="20">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>37.26</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="4">
-        <f>76.9</f>
-        <v>76.900000000000006</v>
-      </c>
-      <c r="D27" s="20">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C27" s="25">
+        <v>69.13</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>51</v>
       </c>
@@ -2038,14 +1416,16 @@
         <v>52</v>
       </c>
       <c r="C28" s="4">
-        <f>136.2</f>
-        <v>136.19999999999999</v>
-      </c>
-      <c r="D28" s="20">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>135.042</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>53</v>
       </c>
@@ -2053,14 +1433,16 @@
         <v>54</v>
       </c>
       <c r="C29" s="4">
-        <f>737.2</f>
-        <v>737.2</v>
-      </c>
-      <c r="D29" s="20">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>809.67399999999998</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>55</v>
       </c>
@@ -2068,15 +1450,17 @@
         <v>56</v>
       </c>
       <c r="C30" s="4">
-        <f>5.9</f>
-        <v>5.9</v>
-      </c>
-      <c r="D30" s="20">
-        <v>2014</v>
+        <v>7.3010000000000002</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" t="s">
+        <v>89</v>
       </c>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>57</v>
       </c>
@@ -2084,15 +1468,17 @@
         <v>58</v>
       </c>
       <c r="C31" s="4">
-        <f>70.7</f>
-        <v>70.7</v>
-      </c>
-      <c r="D31" s="20">
-        <v>2014</v>
+        <v>72.945999999999998</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" t="s">
+        <v>89</v>
       </c>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>59</v>
       </c>
@@ -2100,54 +1486,55 @@
         <v>60</v>
       </c>
       <c r="C32" s="4">
-        <f>114.6</f>
-        <v>114.6</v>
-      </c>
-      <c r="D32" s="20">
-        <v>2013</v>
+        <v>122.08799999999999</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" t="s">
+        <v>89</v>
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13">
-        <f>174/1000</f>
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="D33" s="20">
-        <v>2017</v>
+      <c r="C33" s="21">
+        <f>198/1000</f>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="E33" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="13">
-        <f>11558/1000</f>
-        <v>11.558</v>
-      </c>
-      <c r="D34" s="20">
-        <v>2017</v>
+      <c r="C34" s="21">
+        <v>9.3439999999999994</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="E34" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>64</v>
       </c>
@@ -2158,176 +1545,180 @@
         <f>(4223+377)/1000</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="D35" s="20">
-        <v>2017</v>
-      </c>
-      <c r="H35" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D35" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="21">
         <f>8662/1000</f>
         <v>8.6620000000000008</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="13">
         <v>2013</v>
       </c>
       <c r="E36" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="21">
         <f>(1690+29)/1000</f>
         <v>1.7190000000000001</v>
       </c>
-      <c r="D37" s="20">
-        <v>2016</v>
+      <c r="D37" s="13" t="s">
+        <v>121</v>
       </c>
       <c r="E37" t="s">
+        <v>89</v>
+      </c>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="16"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="16"/>
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" s="17"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="16"/>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="16"/>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="H37" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="K37" s="28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="B41" t="s">
-        <v>124</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" t="s">
-        <v>127</v>
-      </c>
-      <c r="C42" s="25" t="s">
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="16"/>
+      <c r="C45" s="17"/>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="16"/>
+      <c r="B47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="E47" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="16"/>
+      <c r="B48" t="s">
         <v>131</v>
       </c>
-      <c r="E42" s="25" t="s">
+      <c r="E48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="16"/>
+      <c r="B49" t="s">
         <v>132</v>
       </c>
-      <c r="F42" s="25"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-      <c r="B43" t="s">
-        <v>129</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
-      <c r="B44" t="s">
-        <v>128</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
-      <c r="C45" s="25"/>
-      <c r="E45" s="7"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-      <c r="E46" s="7"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="E49" t="s">
         <v>133</v>
       </c>
-      <c r="C47" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E47" s="7"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="24"/>
-      <c r="E48" s="7"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B50" t="s">
-        <v>126</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="24"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="24"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="24"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E41" r:id="rId1" xr:uid="{9AE563D9-9597-47B2-97FD-FB886B79DB21}"/>
-    <hyperlink ref="E50" r:id="rId2" xr:uid="{DE481027-6B00-4839-8ACA-4F42D1224C90}"/>
-    <hyperlink ref="E43" r:id="rId3" xr:uid="{55DD4E7B-12A0-4468-8685-A2530DB82872}"/>
-    <hyperlink ref="E44" r:id="rId4" xr:uid="{BC67F269-BEA5-4036-9033-06EA1658564C}"/>
+    <hyperlink ref="E41" r:id="rId1" xr:uid="{05E357F9-6C19-4586-BA58-E5659D1735E0}"/>
+    <hyperlink ref="E46" r:id="rId2" xr:uid="{F22FC69F-6D51-44B1-B36A-575723BB3B0F}"/>
+    <hyperlink ref="E47" r:id="rId3" xr:uid="{03AF4F4B-DCF8-495B-AF01-315813ECE261}"/>
+    <hyperlink ref="E43" r:id="rId4" xr:uid="{A3700750-F81F-4752-9276-12E5ADDF49B0}"/>
+    <hyperlink ref="F43" r:id="rId5" location="indicator-chart" display="https://data.oecd.org/transport/passenger-transport.htm#indicator-chart" xr:uid="{289A8EFD-CCB5-4D23-BA58-B0BA1D1C9D7E}"/>
+    <hyperlink ref="G43" r:id="rId6" location="indicator-chart" xr:uid="{61ADE5BA-F63C-4B8D-9874-595615AC4EE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -2336,29 +1727,29 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD9"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
         <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2372,10 +1763,10 @@
         <v>2018</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2389,10 +1780,10 @@
         <v>2018</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2406,10 +1797,10 @@
         <v>2018</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2423,10 +1814,10 @@
         <v>2018</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2440,10 +1831,10 @@
         <v>2018</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2457,10 +1848,10 @@
         <v>2018</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2474,10 +1865,10 @@
         <v>2018</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2491,10 +1882,10 @@
         <v>2018</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2508,10 +1899,10 @@
         <v>2018</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2525,10 +1916,10 @@
         <v>2018</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2542,10 +1933,10 @@
         <v>2018</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2559,10 +1950,10 @@
         <v>2018</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2576,10 +1967,10 @@
         <v>2018</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2593,10 +1984,10 @@
         <v>2018</v>
       </c>
       <c r="E15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -2610,10 +2001,10 @@
         <v>2018</v>
       </c>
       <c r="E16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -2627,10 +2018,10 @@
         <v>2018</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2644,10 +2035,10 @@
         <v>2018</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -2661,10 +2052,10 @@
         <v>2018</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -2678,10 +2069,10 @@
         <v>2018</v>
       </c>
       <c r="E20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -2695,10 +2086,10 @@
         <v>2018</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -2712,10 +2103,10 @@
         <v>2018</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -2729,10 +2120,10 @@
         <v>2018</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -2746,10 +2137,10 @@
         <v>2018</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -2763,10 +2154,10 @@
         <v>2018</v>
       </c>
       <c r="E25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -2780,10 +2171,10 @@
         <v>2018</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -2797,10 +2188,10 @@
         <v>2018</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -2814,10 +2205,10 @@
         <v>2018</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -2831,10 +2222,10 @@
         <v>2018</v>
       </c>
       <c r="E29" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -2849,10 +2240,10 @@
         <v>2018</v>
       </c>
       <c r="E30" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -2866,7 +2257,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -2880,7 +2271,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -2895,10 +2286,10 @@
         <v>2018</v>
       </c>
       <c r="E33" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -2913,10 +2304,10 @@
         <v>2018</v>
       </c>
       <c r="E34" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -2931,10 +2322,10 @@
         <v>2018</v>
       </c>
       <c r="E35" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -2949,10 +2340,10 @@
         <v>2018</v>
       </c>
       <c r="E36" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -2967,66 +2358,66 @@
         <v>2018</v>
       </c>
       <c r="E37" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
-        <v>121</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
-        <v>123</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="16"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="D41" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="E41" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="24" t="s">
-        <v>134</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="16"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
-        <v>125</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="16"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -3042,15 +2433,15 @@
   <dimension ref="A1:AE47"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF1" sqref="AF1:AF1048576"/>
+      <selection pane="bottomRight" activeCell="AD1" sqref="AD1:AD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3142,10 +2533,10 @@
         <v>2018</v>
       </c>
       <c r="AE1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3237,10 +2628,10 @@
         <v>81.599999999999994</v>
       </c>
       <c r="AE2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3322,10 +2713,10 @@
         <v>85.8</v>
       </c>
       <c r="AE3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3411,10 +2802,10 @@
         <v>73.3</v>
       </c>
       <c r="AE4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3506,10 +2897,10 @@
         <v>82</v>
       </c>
       <c r="AE5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3601,10 +2992,10 @@
         <v>85.1</v>
       </c>
       <c r="AE6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3680,10 +3071,10 @@
         <v>80.599999999999994</v>
       </c>
       <c r="AE7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3775,10 +3166,10 @@
         <v>81.7</v>
       </c>
       <c r="AE8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3870,10 +3261,10 @@
         <v>82.7</v>
       </c>
       <c r="AE9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3965,10 +3356,10 @@
         <v>84.9</v>
       </c>
       <c r="AE10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -4060,10 +3451,10 @@
         <v>83.3</v>
       </c>
       <c r="AE11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -4145,10 +3536,10 @@
         <v>84.8</v>
       </c>
       <c r="AE12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -4240,10 +3631,10 @@
         <v>82</v>
       </c>
       <c r="AE13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -4325,10 +3716,10 @@
         <v>81.099999999999994</v>
       </c>
       <c r="AE14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -4410,10 +3801,10 @@
         <v>82.8</v>
       </c>
       <c r="AE15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -4485,10 +3876,10 @@
         <v>90.4</v>
       </c>
       <c r="AE16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -4580,10 +3971,10 @@
         <v>82.9</v>
       </c>
       <c r="AE17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -4675,10 +4066,10 @@
         <v>70.599999999999994</v>
       </c>
       <c r="AE18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -4760,10 +4151,10 @@
         <v>82.5</v>
       </c>
       <c r="AE19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -4839,10 +4230,10 @@
         <v>85.7</v>
       </c>
       <c r="AE20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -4934,10 +4325,10 @@
         <v>77.099999999999994</v>
       </c>
       <c r="AE21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -5029,10 +4420,10 @@
         <v>79.3</v>
       </c>
       <c r="AE22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -5124,10 +4515,10 @@
         <v>88.4</v>
       </c>
       <c r="AE23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -5209,10 +4600,10 @@
         <v>80.3</v>
       </c>
       <c r="AE24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -5304,10 +4695,10 @@
         <v>86.4</v>
       </c>
       <c r="AE25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -5393,10 +4784,10 @@
         <v>73.900000000000006</v>
       </c>
       <c r="AE26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -5488,10 +4879,10 @@
         <v>84.2</v>
       </c>
       <c r="AE27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -5583,10 +4974,10 @@
         <v>83.1</v>
       </c>
       <c r="AE28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -5678,10 +5069,10 @@
         <v>86.3</v>
       </c>
       <c r="AE29" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -5763,10 +5154,10 @@
         <v>86.4</v>
       </c>
       <c r="AE30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -5850,10 +5241,10 @@
         <v>89.2</v>
       </c>
       <c r="AE31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -5945,10 +5336,10 @@
         <v>74.8</v>
       </c>
       <c r="AE32" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -6000,10 +5391,10 @@
         <v>96.4</v>
       </c>
       <c r="AE33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -6079,10 +5470,10 @@
         <v>76.400000000000006</v>
       </c>
       <c r="AE34" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -6134,335 +5525,335 @@
         <v>73.7</v>
       </c>
       <c r="AE35" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>67</v>
       </c>
       <c r="B36" s="8">
-        <f>100-ModalSplit_rail!B36-ModalSplit_bus!B36</f>
+        <f>100-ModalSplit_rail_his!B36-ModalSplit_bus_his!B36</f>
         <v>88.2</v>
       </c>
       <c r="C36" s="8">
-        <f>100-ModalSplit_rail!C36-ModalSplit_bus!C36</f>
+        <f>100-ModalSplit_rail_his!C36-ModalSplit_bus_his!C36</f>
         <v>88.2</v>
       </c>
       <c r="D36" s="8">
-        <f>100-ModalSplit_rail!D36-ModalSplit_bus!D36</f>
+        <f>100-ModalSplit_rail_his!D36-ModalSplit_bus_his!D36</f>
         <v>88.2</v>
       </c>
       <c r="E36" s="8">
-        <f>100-ModalSplit_rail!E36-ModalSplit_bus!E36</f>
+        <f>100-ModalSplit_rail_his!E36-ModalSplit_bus_his!E36</f>
         <v>88.2</v>
       </c>
       <c r="F36" s="8">
-        <f>100-ModalSplit_rail!F36-ModalSplit_bus!F36</f>
+        <f>100-ModalSplit_rail_his!F36-ModalSplit_bus_his!F36</f>
         <v>88.2</v>
       </c>
       <c r="G36" s="8">
-        <f>100-ModalSplit_rail!G36-ModalSplit_bus!G36</f>
+        <f>100-ModalSplit_rail_his!G36-ModalSplit_bus_his!G36</f>
         <v>88.2</v>
       </c>
       <c r="H36" s="8">
-        <f>100-ModalSplit_rail!H36-ModalSplit_bus!H36</f>
+        <f>100-ModalSplit_rail_his!H36-ModalSplit_bus_his!H36</f>
         <v>88.2</v>
       </c>
       <c r="I36" s="8">
-        <f>100-ModalSplit_rail!I36-ModalSplit_bus!I36</f>
+        <f>100-ModalSplit_rail_his!I36-ModalSplit_bus_his!I36</f>
         <v>88.2</v>
       </c>
       <c r="J36" s="8">
-        <f>100-ModalSplit_rail!J36-ModalSplit_bus!J36</f>
+        <f>100-ModalSplit_rail_his!J36-ModalSplit_bus_his!J36</f>
         <v>88.2</v>
       </c>
       <c r="K36" s="8">
-        <f>100-ModalSplit_rail!K36-ModalSplit_bus!K36</f>
+        <f>100-ModalSplit_rail_his!K36-ModalSplit_bus_his!K36</f>
         <v>88.2</v>
       </c>
       <c r="L36" s="8">
-        <f>100-ModalSplit_rail!L36-ModalSplit_bus!L36</f>
+        <f>100-ModalSplit_rail_his!L36-ModalSplit_bus_his!L36</f>
         <v>88.2</v>
       </c>
       <c r="M36" s="8">
-        <f>100-ModalSplit_rail!M36-ModalSplit_bus!M36</f>
+        <f>100-ModalSplit_rail_his!M36-ModalSplit_bus_his!M36</f>
         <v>88.2</v>
       </c>
       <c r="N36" s="8">
-        <f>100-ModalSplit_rail!N36-ModalSplit_bus!N36</f>
+        <f>100-ModalSplit_rail_his!N36-ModalSplit_bus_his!N36</f>
         <v>88.2</v>
       </c>
       <c r="O36" s="8">
-        <f>100-ModalSplit_rail!O36-ModalSplit_bus!O36</f>
+        <f>100-ModalSplit_rail_his!O36-ModalSplit_bus_his!O36</f>
         <v>88.2</v>
       </c>
       <c r="P36" s="8">
-        <f>100-ModalSplit_rail!P36-ModalSplit_bus!P36</f>
+        <f>100-ModalSplit_rail_his!P36-ModalSplit_bus_his!P36</f>
         <v>88.2</v>
       </c>
       <c r="Q36" s="8">
-        <f>100-ModalSplit_rail!Q36-ModalSplit_bus!Q36</f>
+        <f>100-ModalSplit_rail_his!Q36-ModalSplit_bus_his!Q36</f>
         <v>88.2</v>
       </c>
       <c r="R36" s="8">
-        <f>100-ModalSplit_rail!R36-ModalSplit_bus!R36</f>
+        <f>100-ModalSplit_rail_his!R36-ModalSplit_bus_his!R36</f>
         <v>88.2</v>
       </c>
       <c r="S36" s="8">
-        <f>100-ModalSplit_rail!S36-ModalSplit_bus!S36</f>
+        <f>100-ModalSplit_rail_his!S36-ModalSplit_bus_his!S36</f>
         <v>88.2</v>
       </c>
       <c r="T36" s="8">
-        <f>100-ModalSplit_rail!T36-ModalSplit_bus!T36</f>
+        <f>100-ModalSplit_rail_his!T36-ModalSplit_bus_his!T36</f>
         <v>88.2</v>
       </c>
       <c r="U36" s="8">
-        <f>100-ModalSplit_rail!U36-ModalSplit_bus!U36</f>
+        <f>100-ModalSplit_rail_his!U36-ModalSplit_bus_his!U36</f>
         <v>88.2</v>
       </c>
       <c r="V36" s="8">
-        <f>100-ModalSplit_rail!V36-ModalSplit_bus!V36</f>
+        <f>100-ModalSplit_rail_his!V36-ModalSplit_bus_his!V36</f>
         <v>88.2</v>
       </c>
       <c r="W36" s="8">
-        <f>100-ModalSplit_rail!W36-ModalSplit_bus!W36</f>
+        <f>100-ModalSplit_rail_his!W36-ModalSplit_bus_his!W36</f>
         <v>88.2</v>
       </c>
       <c r="X36" s="8">
-        <f>100-ModalSplit_rail!X36-ModalSplit_bus!X36</f>
+        <f>100-ModalSplit_rail_his!X36-ModalSplit_bus_his!X36</f>
         <v>88.2</v>
       </c>
       <c r="Y36" s="8">
-        <f>100-ModalSplit_rail!Y36-ModalSplit_bus!Y36</f>
+        <f>100-ModalSplit_rail_his!Y36-ModalSplit_bus_his!Y36</f>
         <v>88.2</v>
       </c>
       <c r="Z36" s="8">
-        <f>100-ModalSplit_rail!Z36-ModalSplit_bus!Z36</f>
+        <f>100-ModalSplit_rail_his!Z36-ModalSplit_bus_his!Z36</f>
         <v>88.2</v>
       </c>
       <c r="AA36" s="8">
-        <f>100-ModalSplit_rail!AA36-ModalSplit_bus!AA36</f>
+        <f>100-ModalSplit_rail_his!AA36-ModalSplit_bus_his!AA36</f>
         <v>88.2</v>
       </c>
       <c r="AB36" s="8">
-        <f>100-ModalSplit_rail!AB36-ModalSplit_bus!AB36</f>
+        <f>100-ModalSplit_rail_his!AB36-ModalSplit_bus_his!AB36</f>
         <v>88.2</v>
       </c>
       <c r="AC36" s="8">
-        <f>100-ModalSplit_rail!AC36-ModalSplit_bus!AC36</f>
+        <f>100-ModalSplit_rail_his!AC36-ModalSplit_bus_his!AC36</f>
         <v>88.2</v>
       </c>
       <c r="AD36" s="8">
-        <f>100-ModalSplit_rail!AD36-ModalSplit_bus!AD36</f>
+        <f>100-ModalSplit_rail_his!AD36-ModalSplit_bus_his!AD36</f>
         <v>88.2</v>
       </c>
       <c r="AE36" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>69</v>
       </c>
       <c r="B37" s="8">
-        <f>100-ModalSplit_rail!B37-ModalSplit_bus!B37</f>
+        <f>100-ModalSplit_rail_his!B37-ModalSplit_bus_his!B37</f>
         <v>83.2</v>
       </c>
       <c r="C37" s="8">
-        <f>100-ModalSplit_rail!C37-ModalSplit_bus!C37</f>
+        <f>100-ModalSplit_rail_his!C37-ModalSplit_bus_his!C37</f>
         <v>83.2</v>
       </c>
       <c r="D37" s="8">
-        <f>100-ModalSplit_rail!D37-ModalSplit_bus!D37</f>
+        <f>100-ModalSplit_rail_his!D37-ModalSplit_bus_his!D37</f>
         <v>83.2</v>
       </c>
       <c r="E37" s="8">
-        <f>100-ModalSplit_rail!E37-ModalSplit_bus!E37</f>
+        <f>100-ModalSplit_rail_his!E37-ModalSplit_bus_his!E37</f>
         <v>83.2</v>
       </c>
       <c r="F37" s="8">
-        <f>100-ModalSplit_rail!F37-ModalSplit_bus!F37</f>
+        <f>100-ModalSplit_rail_his!F37-ModalSplit_bus_his!F37</f>
         <v>83.2</v>
       </c>
       <c r="G37" s="8">
-        <f>100-ModalSplit_rail!G37-ModalSplit_bus!G37</f>
+        <f>100-ModalSplit_rail_his!G37-ModalSplit_bus_his!G37</f>
         <v>83.2</v>
       </c>
       <c r="H37" s="8">
-        <f>100-ModalSplit_rail!H37-ModalSplit_bus!H37</f>
+        <f>100-ModalSplit_rail_his!H37-ModalSplit_bus_his!H37</f>
         <v>83.2</v>
       </c>
       <c r="I37" s="8">
-        <f>100-ModalSplit_rail!I37-ModalSplit_bus!I37</f>
+        <f>100-ModalSplit_rail_his!I37-ModalSplit_bus_his!I37</f>
         <v>83.2</v>
       </c>
       <c r="J37" s="8">
-        <f>100-ModalSplit_rail!J37-ModalSplit_bus!J37</f>
+        <f>100-ModalSplit_rail_his!J37-ModalSplit_bus_his!J37</f>
         <v>83.2</v>
       </c>
       <c r="K37" s="8">
-        <f>100-ModalSplit_rail!K37-ModalSplit_bus!K37</f>
+        <f>100-ModalSplit_rail_his!K37-ModalSplit_bus_his!K37</f>
         <v>83.2</v>
       </c>
       <c r="L37" s="8">
-        <f>100-ModalSplit_rail!L37-ModalSplit_bus!L37</f>
+        <f>100-ModalSplit_rail_his!L37-ModalSplit_bus_his!L37</f>
         <v>83.2</v>
       </c>
       <c r="M37" s="8">
-        <f>100-ModalSplit_rail!M37-ModalSplit_bus!M37</f>
+        <f>100-ModalSplit_rail_his!M37-ModalSplit_bus_his!M37</f>
         <v>83.2</v>
       </c>
       <c r="N37" s="8">
-        <f>100-ModalSplit_rail!N37-ModalSplit_bus!N37</f>
+        <f>100-ModalSplit_rail_his!N37-ModalSplit_bus_his!N37</f>
         <v>83.2</v>
       </c>
       <c r="O37" s="8">
-        <f>100-ModalSplit_rail!O37-ModalSplit_bus!O37</f>
+        <f>100-ModalSplit_rail_his!O37-ModalSplit_bus_his!O37</f>
         <v>83.2</v>
       </c>
       <c r="P37" s="8">
-        <f>100-ModalSplit_rail!P37-ModalSplit_bus!P37</f>
+        <f>100-ModalSplit_rail_his!P37-ModalSplit_bus_his!P37</f>
         <v>83.2</v>
       </c>
       <c r="Q37" s="8">
-        <f>100-ModalSplit_rail!Q37-ModalSplit_bus!Q37</f>
+        <f>100-ModalSplit_rail_his!Q37-ModalSplit_bus_his!Q37</f>
         <v>83.2</v>
       </c>
       <c r="R37" s="8">
-        <f>100-ModalSplit_rail!R37-ModalSplit_bus!R37</f>
+        <f>100-ModalSplit_rail_his!R37-ModalSplit_bus_his!R37</f>
         <v>83.2</v>
       </c>
       <c r="S37" s="8">
-        <f>100-ModalSplit_rail!S37-ModalSplit_bus!S37</f>
+        <f>100-ModalSplit_rail_his!S37-ModalSplit_bus_his!S37</f>
         <v>83.2</v>
       </c>
       <c r="T37" s="8">
-        <f>100-ModalSplit_rail!T37-ModalSplit_bus!T37</f>
+        <f>100-ModalSplit_rail_his!T37-ModalSplit_bus_his!T37</f>
         <v>83.2</v>
       </c>
       <c r="U37" s="8">
-        <f>100-ModalSplit_rail!U37-ModalSplit_bus!U37</f>
+        <f>100-ModalSplit_rail_his!U37-ModalSplit_bus_his!U37</f>
         <v>83.2</v>
       </c>
       <c r="V37" s="8">
-        <f>100-ModalSplit_rail!V37-ModalSplit_bus!V37</f>
+        <f>100-ModalSplit_rail_his!V37-ModalSplit_bus_his!V37</f>
         <v>83.2</v>
       </c>
       <c r="W37" s="8">
-        <f>100-ModalSplit_rail!W37-ModalSplit_bus!W37</f>
+        <f>100-ModalSplit_rail_his!W37-ModalSplit_bus_his!W37</f>
         <v>83.2</v>
       </c>
       <c r="X37" s="8">
-        <f>100-ModalSplit_rail!X37-ModalSplit_bus!X37</f>
+        <f>100-ModalSplit_rail_his!X37-ModalSplit_bus_his!X37</f>
         <v>83.2</v>
       </c>
       <c r="Y37" s="8">
-        <f>100-ModalSplit_rail!Y37-ModalSplit_bus!Y37</f>
+        <f>100-ModalSplit_rail_his!Y37-ModalSplit_bus_his!Y37</f>
         <v>83.2</v>
       </c>
       <c r="Z37" s="8">
-        <f>100-ModalSplit_rail!Z37-ModalSplit_bus!Z37</f>
+        <f>100-ModalSplit_rail_his!Z37-ModalSplit_bus_his!Z37</f>
         <v>83.2</v>
       </c>
       <c r="AA37" s="8">
-        <f>100-ModalSplit_rail!AA37-ModalSplit_bus!AA37</f>
+        <f>100-ModalSplit_rail_his!AA37-ModalSplit_bus_his!AA37</f>
         <v>83.2</v>
       </c>
       <c r="AB37" s="8">
-        <f>100-ModalSplit_rail!AB37-ModalSplit_bus!AB37</f>
+        <f>100-ModalSplit_rail_his!AB37-ModalSplit_bus_his!AB37</f>
         <v>83.2</v>
       </c>
       <c r="AC37" s="8">
-        <f>100-ModalSplit_rail!AC37-ModalSplit_bus!AC37</f>
+        <f>100-ModalSplit_rail_his!AC37-ModalSplit_bus_his!AC37</f>
         <v>83.2</v>
       </c>
       <c r="AD37" s="8">
-        <f>100-ModalSplit_rail!AD37-ModalSplit_bus!AD37</f>
+        <f>100-ModalSplit_rail_his!AD37-ModalSplit_bus_his!AD37</f>
         <v>83.2</v>
       </c>
       <c r="AE37" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
-        <v>121</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A39" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
-        <v>123</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A40" s="16"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A41" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="D41" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="E41" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A42" s="16"/>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="E42" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
-        <v>134</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A43" s="16"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A44" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A45" s="16"/>
       <c r="B45" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="C45" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
-        <v>125</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A46" s="16"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A47" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -6477,13 +5868,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1:AD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6575,10 +5966,10 @@
         <v>2018</v>
       </c>
       <c r="AE1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6670,10 +6061,10 @@
         <v>8.1</v>
       </c>
       <c r="AE2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -6765,10 +6156,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AE3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -6860,10 +6251,10 @@
         <v>9.6</v>
       </c>
       <c r="AE4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -6955,10 +6346,10 @@
         <v>8.4</v>
       </c>
       <c r="AE5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -7050,10 +6441,10 @@
         <v>9.1</v>
       </c>
       <c r="AE6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -7145,10 +6536,10 @@
         <v>2.5</v>
       </c>
       <c r="AE7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -7240,10 +6631,10 @@
         <v>3.3</v>
       </c>
       <c r="AE8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -7335,10 +6726,10 @@
         <v>0.9</v>
       </c>
       <c r="AE9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -7430,10 +6821,10 @@
         <v>7.1</v>
       </c>
       <c r="AE10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -7525,10 +6916,10 @@
         <v>10.3</v>
       </c>
       <c r="AE11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -7620,10 +7011,10 @@
         <v>2.5</v>
       </c>
       <c r="AE12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -7715,10 +7106,10 @@
         <v>6.3</v>
       </c>
       <c r="AE13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -7810,10 +7201,10 @@
         <v>0</v>
       </c>
       <c r="AE14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -7905,10 +7296,10 @@
         <v>3.4</v>
       </c>
       <c r="AE15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -8000,10 +7391,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AE16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -8095,10 +7486,10 @@
         <v>4.7</v>
       </c>
       <c r="AE17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -8190,10 +7581,10 @@
         <v>8.6</v>
       </c>
       <c r="AE18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -8285,10 +7676,10 @@
         <v>0</v>
       </c>
       <c r="AE19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -8380,10 +7771,10 @@
         <v>11.2</v>
       </c>
       <c r="AE20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -8475,10 +7866,10 @@
         <v>12.9</v>
       </c>
       <c r="AE21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -8570,10 +7961,10 @@
         <v>7.9</v>
       </c>
       <c r="AE22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -8665,10 +8056,10 @@
         <v>4.2</v>
       </c>
       <c r="AE23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -8760,10 +8151,10 @@
         <v>4.3</v>
       </c>
       <c r="AE24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -8855,10 +8246,10 @@
         <v>1.8</v>
       </c>
       <c r="AE25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -8950,10 +8341,10 @@
         <v>9.9</v>
       </c>
       <c r="AE26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -9045,10 +8436,10 @@
         <v>5.7</v>
       </c>
       <c r="AE27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -9140,10 +8531,10 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="AE28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -9235,10 +8626,10 @@
         <v>8.9</v>
       </c>
       <c r="AE29" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -9330,10 +8721,10 @@
         <v>0</v>
       </c>
       <c r="AE30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -9425,10 +8816,10 @@
         <v>5</v>
       </c>
       <c r="AE31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -9520,10 +8911,10 @@
         <v>19.3</v>
       </c>
       <c r="AE32" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -9615,10 +9006,10 @@
         <v>1.3</v>
       </c>
       <c r="AE33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -9710,10 +9101,10 @@
         <v>0.6</v>
       </c>
       <c r="AE34" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -9805,10 +9196,10 @@
         <v>0.8</v>
       </c>
       <c r="AE35" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -9900,10 +9291,10 @@
         <v>0.1</v>
       </c>
       <c r="AE36" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -9995,96 +9386,96 @@
         <v>2</v>
       </c>
       <c r="AE37" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
-        <v>121</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A39" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
-        <v>123</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A40" s="16"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A41" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="D41" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="E41" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A42" s="16"/>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A43" s="16"/>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
-      <c r="O44" s="23"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A44" s="16"/>
+      <c r="O44" s="15"/>
       <c r="P44" s="9"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
-        <v>134</v>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A45" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>156</v>
-      </c>
-      <c r="O45" s="24"/>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-      <c r="O46" s="24"/>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
-        <v>125</v>
+        <v>111</v>
+      </c>
+      <c r="O45" s="16"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A46" s="16"/>
+      <c r="O46" s="16"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A47" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="O47" s="24"/>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="O48" s="24"/>
-    </row>
-    <row r="49" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O49" s="24"/>
+        <v>73</v>
+      </c>
+      <c r="O47" s="16"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="O48" s="16"/>
+    </row>
+    <row r="49" spans="15:15" x14ac:dyDescent="0.35">
+      <c r="O49" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10099,13 +9490,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AE47"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N54" sqref="N54"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1:AD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10197,10 +9588,10 @@
         <v>2018</v>
       </c>
       <c r="AE1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -10292,10 +9683,10 @@
         <v>10.3</v>
       </c>
       <c r="AE2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -10387,10 +9778,10 @@
         <v>12</v>
       </c>
       <c r="AE3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -10482,10 +9873,10 @@
         <v>17</v>
       </c>
       <c r="AE4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -10577,10 +9968,10 @@
         <v>9.6</v>
       </c>
       <c r="AE5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -10672,10 +10063,10 @@
         <v>5.8</v>
       </c>
       <c r="AE6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -10767,10 +10158,10 @@
         <v>16.8</v>
       </c>
       <c r="AE7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -10862,10 +10253,10 @@
         <v>15</v>
       </c>
       <c r="AE8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -10957,10 +10348,10 @@
         <v>16.399999999999999</v>
       </c>
       <c r="AE9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -11052,10 +10443,10 @@
         <v>8</v>
       </c>
       <c r="AE10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -11147,10 +10538,10 @@
         <v>6.4</v>
       </c>
       <c r="AE11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -11242,10 +10633,10 @@
         <v>12.7</v>
       </c>
       <c r="AE12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -11337,10 +10728,10 @@
         <v>11.7</v>
       </c>
       <c r="AE13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -11432,10 +10823,10 @@
         <v>18.899999999999999</v>
       </c>
       <c r="AE14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -11527,10 +10918,10 @@
         <v>13.9</v>
       </c>
       <c r="AE15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -11622,10 +11013,10 @@
         <v>8.5</v>
       </c>
       <c r="AE16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -11717,10 +11108,10 @@
         <v>12.4</v>
       </c>
       <c r="AE17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -11812,10 +11203,10 @@
         <v>20.8</v>
       </c>
       <c r="AE18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -11907,10 +11298,10 @@
         <v>17.5</v>
       </c>
       <c r="AE19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -12002,10 +11393,10 @@
         <v>3.1</v>
       </c>
       <c r="AE20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -12097,10 +11488,10 @@
         <v>10.1</v>
       </c>
       <c r="AE21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -12192,10 +11583,10 @@
         <v>12.9</v>
       </c>
       <c r="AE22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -12287,10 +11678,10 @@
         <v>7.3</v>
       </c>
       <c r="AE23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -12382,10 +11773,10 @@
         <v>15.4</v>
       </c>
       <c r="AE24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -12477,10 +11868,10 @@
         <v>11.8</v>
       </c>
       <c r="AE25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -12572,10 +11963,10 @@
         <v>16.2</v>
       </c>
       <c r="AE26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -12667,10 +12058,10 @@
         <v>10.1</v>
       </c>
       <c r="AE27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -12762,10 +12153,10 @@
         <v>7.2</v>
       </c>
       <c r="AE28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -12857,10 +12248,10 @@
         <v>4.7</v>
       </c>
       <c r="AE29" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -12952,10 +12343,10 @@
         <v>13.6</v>
       </c>
       <c r="AE30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -13047,10 +12438,10 @@
         <v>5.8</v>
       </c>
       <c r="AE31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -13142,10 +12533,10 @@
         <v>5.9</v>
       </c>
       <c r="AE32" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -13237,10 +12628,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AE33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -13332,10 +12723,10 @@
         <v>23</v>
       </c>
       <c r="AE34" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -13427,10 +12818,10 @@
         <v>25.5</v>
       </c>
       <c r="AE35" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -13522,10 +12913,10 @@
         <v>11.7</v>
       </c>
       <c r="AE36" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -13617,84 +13008,84 @@
         <v>14.8</v>
       </c>
       <c r="AE37" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
-        <v>121</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A39" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
-        <v>123</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A40" s="16"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A41" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="D41" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="E41" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A42" s="16"/>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
-        <v>134</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A43" s="16"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A44" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A45" s="16"/>
       <c r="B45" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="C45" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
-        <v>125</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A46" s="16"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A47" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -13706,298 +13097,2700 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:T68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A7C9E4-E498-40D2-A571-7379128B8600}">
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA47" sqref="AA47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="J1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>2018</v>
+      </c>
+      <c r="C1">
+        <v>2020</v>
+      </c>
+      <c r="D1">
+        <v>2030</v>
+      </c>
+      <c r="E1">
+        <v>2040</v>
+      </c>
+      <c r="F1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2">
-        <v>0.2</v>
-      </c>
-      <c r="C2" s="12">
-        <f>(12.1)/100</f>
-        <v>0.121</v>
-      </c>
-      <c r="D2" s="17">
-        <f>8.9/100</f>
-        <v>8.900000000000001E-2</v>
-      </c>
-      <c r="E2" s="22">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="C2">
+        <f>B2</f>
+        <v>81.599999999999994</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:F2" si="0">C2</f>
+        <v>81.599999999999994</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>81.599999999999994</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>81.599999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8">
+        <v>85.8</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:F3" si="1">B3</f>
+        <v>85.8</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>85.8</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>85.8</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8">
+        <v>73.3</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:F4" si="2">B4</f>
+        <v>73.3</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>73.3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>73.3</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8">
+        <v>82</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:F5" si="3">B5</f>
+        <v>82</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
+        <v>85.1</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:F6" si="4">B6</f>
+        <v>85.1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="4"/>
+        <v>85.1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="4"/>
+        <v>85.1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>85.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:F7" si="5">B7</f>
+        <v>80.599999999999994</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="5"/>
+        <v>80.599999999999994</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="5"/>
+        <v>80.599999999999994</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="5"/>
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8">
+        <v>81.7</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:F8" si="6">B8</f>
+        <v>81.7</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="6"/>
+        <v>81.7</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="6"/>
+        <v>81.7</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="6"/>
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8">
+        <v>82.7</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:F9" si="7">B9</f>
+        <v>82.7</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="7"/>
+        <v>82.7</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="7"/>
+        <v>82.7</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="7"/>
+        <v>82.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8">
+        <v>84.9</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:F10" si="8">B10</f>
+        <v>84.9</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="8"/>
+        <v>84.9</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="8"/>
+        <v>84.9</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="8"/>
+        <v>84.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="8">
+        <v>83.3</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:F11" si="9">B11</f>
+        <v>83.3</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="9"/>
+        <v>83.3</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="9"/>
+        <v>83.3</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="9"/>
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="8">
+        <v>84.8</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:F12" si="10">B12</f>
+        <v>84.8</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="10"/>
+        <v>84.8</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="10"/>
+        <v>84.8</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="10"/>
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="8">
+        <v>82</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:F13" si="11">B13</f>
+        <v>82</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="11"/>
+        <v>82</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="11"/>
+        <v>82</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="11"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="8">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:F14" si="12">B14</f>
+        <v>81.099999999999994</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="12"/>
+        <v>81.099999999999994</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="12"/>
+        <v>81.099999999999994</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="12"/>
+        <v>81.099999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="8">
+        <v>82.8</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:F15" si="13">B15</f>
+        <v>82.8</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="13"/>
+        <v>82.8</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="13"/>
+        <v>82.8</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="13"/>
+        <v>82.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="8">
+        <v>90.4</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:F16" si="14">B16</f>
+        <v>90.4</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="14"/>
+        <v>90.4</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="14"/>
+        <v>90.4</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="14"/>
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="8">
+        <v>82.9</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:F17" si="15">B17</f>
+        <v>82.9</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="15"/>
+        <v>82.9</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="15"/>
+        <v>82.9</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="15"/>
+        <v>82.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="8">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:F18" si="16">B18</f>
+        <v>70.599999999999994</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="16"/>
+        <v>70.599999999999994</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="16"/>
+        <v>70.599999999999994</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="16"/>
+        <v>70.599999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="8">
+        <v>82.5</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:F19" si="17">B19</f>
+        <v>82.5</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="17"/>
+        <v>82.5</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="17"/>
+        <v>82.5</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="17"/>
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="8">
+        <v>85.7</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:F20" si="18">B20</f>
+        <v>85.7</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="18"/>
+        <v>85.7</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="18"/>
+        <v>85.7</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="18"/>
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="8">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:F21" si="19">B21</f>
+        <v>77.099999999999994</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="19"/>
+        <v>77.099999999999994</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="19"/>
+        <v>77.099999999999994</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="19"/>
+        <v>77.099999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="8">
+        <v>79.3</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:F22" si="20">B22</f>
+        <v>79.3</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="20"/>
+        <v>79.3</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="20"/>
+        <v>79.3</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="20"/>
+        <v>79.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="8">
+        <v>88.4</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:F23" si="21">B23</f>
+        <v>88.4</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="21"/>
+        <v>88.4</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="21"/>
+        <v>88.4</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="21"/>
+        <v>88.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="8">
+        <v>80.3</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:F24" si="22">B24</f>
+        <v>80.3</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="22"/>
+        <v>80.3</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="22"/>
+        <v>80.3</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="22"/>
+        <v>80.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="8">
+        <v>86.4</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:F25" si="23">B25</f>
+        <v>86.4</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="23"/>
+        <v>86.4</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="23"/>
+        <v>86.4</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="23"/>
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="8">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:F26" si="24">B26</f>
+        <v>73.900000000000006</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="24"/>
+        <v>73.900000000000006</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="24"/>
+        <v>73.900000000000006</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="24"/>
+        <v>73.900000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="8">
+        <v>84.2</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:F27" si="25">B27</f>
+        <v>84.2</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="25"/>
+        <v>84.2</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="25"/>
+        <v>84.2</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="25"/>
+        <v>84.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="8">
+        <v>83.1</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:F28" si="26">B28</f>
+        <v>83.1</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="26"/>
+        <v>83.1</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="26"/>
+        <v>83.1</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="26"/>
+        <v>83.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="8">
+        <v>86.3</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:F29" si="27">B29</f>
+        <v>86.3</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="27"/>
+        <v>86.3</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="27"/>
+        <v>86.3</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="27"/>
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="8">
+        <v>86.4</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:F30" si="28">B30</f>
+        <v>86.4</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="28"/>
+        <v>86.4</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="28"/>
+        <v>86.4</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="28"/>
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="8">
+        <v>89.2</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:F31" si="29">B31</f>
+        <v>89.2</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="29"/>
+        <v>89.2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="29"/>
+        <v>89.2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="29"/>
+        <v>89.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="8">
+        <v>74.8</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32:F32" si="30">B32</f>
+        <v>74.8</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="30"/>
+        <v>74.8</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="30"/>
+        <v>74.8</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="30"/>
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="8">
+        <v>96.4</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:F33" si="31">B33</f>
+        <v>96.4</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="31"/>
+        <v>96.4</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="31"/>
+        <v>96.4</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="31"/>
+        <v>96.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="8">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:F34" si="32">B34</f>
+        <v>76.400000000000006</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="32"/>
+        <v>76.400000000000006</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="32"/>
+        <v>76.400000000000006</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="32"/>
+        <v>76.400000000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="8">
+        <v>73.7</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:F35" si="33">B35</f>
+        <v>73.7</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="33"/>
+        <v>73.7</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="33"/>
+        <v>73.7</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="33"/>
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="8">
+        <f>100-ModalSplit_rail_his!B36-ModalSplit_bus_his!B36</f>
+        <v>88.2</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:F36" si="34">B36</f>
+        <v>88.2</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="34"/>
+        <v>88.2</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="34"/>
+        <v>88.2</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="34"/>
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="8">
+        <f>100-ModalSplit_rail_his!B37-ModalSplit_bus_his!B37</f>
+        <v>83.2</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:F37" si="35">B37</f>
+        <v>83.2</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="35"/>
+        <v>83.2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="35"/>
+        <v>83.2</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="35"/>
+        <v>83.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3982EBBC-FB97-4192-8E78-D16AD749443C}">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1">
+        <v>2018</v>
+      </c>
+      <c r="C1">
+        <v>2020</v>
+      </c>
+      <c r="D1">
+        <v>2030</v>
+      </c>
+      <c r="E1">
+        <v>2040</v>
+      </c>
+      <c r="F1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="C2">
+        <f>B2</f>
+        <v>8.1</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:F2" si="0">C2</f>
+        <v>8.1</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>8.1</v>
+      </c>
       <c r="F2">
+        <f t="shared" si="0"/>
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:F18" si="1">B3</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8">
+        <v>9.6</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>8.4</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>8.4</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>8.4</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
+        <v>9.1</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>9.1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>9.1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>9.1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>3.3</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>3.3</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>3.3</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>7.1</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>7.1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>7.1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="8">
+        <v>10.3</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>10.3</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>10.3</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>10.3</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>6.3</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>6.3</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>6.3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="8">
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>2019</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="J2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>3.4</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>3.4</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>3.4</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>4.7</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>4.7</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>4.7</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="8">
+        <v>8.6</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>8.6</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>8.6</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>8.6</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:F34" si="2">B19</f>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="8">
+        <v>11.2</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>11.2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>11.2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>11.2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="8">
+        <v>12.9</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>12.9</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>12.9</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>12.9</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="8">
+        <v>7.9</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>7.9</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>7.9</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>7.9</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>4.2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>4.2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>4.2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>4.3</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>4.3</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>4.3</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="8">
+        <v>9.9</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>9.9</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>9.9</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>9.9</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>5.7</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>5.7</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>5.7</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="8">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="8">
+        <v>8.9</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>8.9</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>8.9</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>8.9</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="8">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="8">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="8">
+        <v>19.3</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>19.3</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>19.3</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>19.3</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>1.3</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>1.3</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>1.3</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:F37" si="3">B35</f>
+        <v>0.8</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="8">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543A4BED-4BDE-4A28-B8F8-B14A2F15873B}">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>2018</v>
+      </c>
+      <c r="C1">
+        <v>2020</v>
+      </c>
+      <c r="D1">
+        <v>2030</v>
+      </c>
+      <c r="E1">
+        <v>2040</v>
+      </c>
+      <c r="F1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8">
+        <v>10.3</v>
+      </c>
+      <c r="C2">
+        <f>B2</f>
+        <v>10.3</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:F2" si="0">C2</f>
+        <v>10.3</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>10.3</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3">
-        <v>0.4</v>
-      </c>
-      <c r="C3" s="12">
-        <v>0</v>
-      </c>
-      <c r="D3" s="17">
-        <v>0</v>
-      </c>
-      <c r="E3" s="22">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="8">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:F18" si="1">B3</f>
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>2019</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4">
-        <v>0.25</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="8">
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>0.25</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>0.25</v>
-      </c>
-      <c r="E4" s="22">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>2019</v>
-      </c>
-      <c r="J4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="B5" s="8">
+        <v>9.6</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.6</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="22">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
       </c>
       <c r="F5">
-        <v>1.22078E-9</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6">
-        <v>0.52</v>
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
+        <v>5.8</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5.8</v>
       </c>
       <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="22">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5.8</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>5.8</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7">
-        <v>0.5</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="8">
+        <v>16.8</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>16.8</v>
       </c>
       <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="22">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>16.8</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>16.8</v>
       </c>
       <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>6.4</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>6.4</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>6.4</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="B12" s="8">
+        <v>12.7</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>12.7</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>12.7</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>12.7</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13">
-        <v>0.56000000000000005</v>
+        <v>24</v>
+      </c>
+      <c r="B13" s="8">
+        <v>11.7</v>
       </c>
       <c r="C13">
-        <v>0.19</v>
+        <f t="shared" si="1"/>
+        <v>11.7</v>
       </c>
       <c r="D13">
-        <v>0.13</v>
-      </c>
-      <c r="F13" s="16">
-        <v>1.22078E-9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>11.7</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>11.7</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J26" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="S28" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="S29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S50" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J68" s="7" t="s">
-        <v>100</v>
+        <v>26</v>
+      </c>
+      <c r="B14" s="8">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="8">
+        <v>13.9</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>13.9</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>13.9</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>13.9</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="8">
+        <v>12.4</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>12.4</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>12.4</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>12.4</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="8">
+        <v>20.8</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>20.8</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>20.8</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>20.8</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="8">
+        <v>17.5</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:F34" si="2">B19</f>
+        <v>17.5</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>17.5</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>17.5</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>3.1</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>3.1</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>3.1</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="8">
+        <v>10.1</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>10.1</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>10.1</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>10.1</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="8">
+        <v>12.9</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>12.9</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>12.9</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>12.9</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>7.3</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>7.3</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>7.3</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="8">
+        <v>15.4</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>15.4</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>15.4</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>15.4</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="8">
+        <v>11.8</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>11.8</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>11.8</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>11.8</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="8">
+        <v>16.2</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>16.2</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>16.2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>16.2</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="8">
+        <v>10.1</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>10.1</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>10.1</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>10.1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="8">
+        <v>7.2</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>7.2</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>7.2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>7.2</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>4.7</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>4.7</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>4.7</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="8">
+        <v>13.6</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>13.6</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>13.6</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>13.6</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>5.8</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>5.8</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>5.8</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>5.9</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>5.9</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>5.9</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="8">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="8">
+        <v>25.5</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:F37" si="3">B35</f>
+        <v>25.5</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="3"/>
+        <v>25.5</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>25.5</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="8">
+        <v>11.7</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="3"/>
+        <v>11.7</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="3"/>
+        <v>11.7</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>11.7</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="8">
+        <v>14.8</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="3"/>
+        <v>14.8</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="3"/>
+        <v>14.8</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>14.8</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>14.8</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="J68" r:id="rId1" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
-    <hyperlink ref="A10" r:id="rId2" xr:uid="{00000000-0004-0000-1000-000001000000}"/>
-    <hyperlink ref="B14" r:id="rId3" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
-    <hyperlink ref="J26" r:id="rId4" xr:uid="{2064116F-4166-481B-A3C0-C4852D5D0756}"/>
-    <hyperlink ref="S28" r:id="rId5" xr:uid="{E8C507AF-9F85-4B38-A303-A16FF7C3F547}"/>
-    <hyperlink ref="T5" r:id="rId6" xr:uid="{BCEA6F57-4A2F-4437-8A22-FBDC4D268613}"/>
-    <hyperlink ref="S50" r:id="rId7" xr:uid="{719E08DE-4D23-47E3-8AC9-E39CB83A086E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId8"/>
 </worksheet>
 </file>
--- a/input/traffic/Persontraffic.xlsx
+++ b/input/traffic/Persontraffic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\endemo\input\traffic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tumde-my.sharepoint.com/personal/chris_kobalt_tum_de/Documents/Documents/Master_Semester_1/IDP/endemo2/input/traffic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DC6486-412C-4F89-98F5-A144D8EF1623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C0DC6486-412C-4F89-98F5-A144D8EF1623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B5ACA78-29E8-4A16-AC6A-989A7178EC99}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="817" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9490" windowHeight="15400" tabRatio="817" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personkm_road_rail" sheetId="15" r:id="rId1"/>
@@ -614,8 +614,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -916,11 +916,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8096C4-565E-4773-BB3F-97526C7E31D4}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="11.453125" style="3"/>
     <col min="4" max="4" width="11.453125" style="14"/>
@@ -1727,10 +1727,10 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
@@ -2433,13 +2433,16 @@
   <dimension ref="A1:AE47"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD1" sqref="AD1:AD1048576"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.90625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -5868,11 +5871,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1:AD1048576"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH39" sqref="AH39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -9490,11 +9493,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AE47"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AD1" sqref="AD1:AD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -13101,10 +13104,10 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -14005,7 +14008,7 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -14900,11 +14903,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543A4BED-4BDE-4A28-B8F8-B14A2F15873B}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">

--- a/input/traffic/Persontraffic.xlsx
+++ b/input/traffic/Persontraffic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tumde-my.sharepoint.com/personal/chris_kobalt_tum_de/Documents/Documents/Master_Semester_1/IDP/endemo2/input/traffic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\endemo\input\traffic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C0DC6486-412C-4F89-98F5-A144D8EF1623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B5ACA78-29E8-4A16-AC6A-989A7178EC99}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DC6486-412C-4F89-98F5-A144D8EF1623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9490" windowHeight="15400" tabRatio="817" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="817" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personkm_road_rail" sheetId="15" r:id="rId1"/>
@@ -614,8 +614,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -916,11 +916,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8096C4-565E-4773-BB3F-97526C7E31D4}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="11.453125" style="3"/>
     <col min="4" max="4" width="11.453125" style="14"/>
@@ -1727,10 +1727,10 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
@@ -2433,16 +2433,13 @@
   <dimension ref="A1:AE47"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="AD1" sqref="AD1:AD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.90625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -5871,11 +5868,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH39" sqref="AH39"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1:AD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -9493,11 +9490,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AE47"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AD1" sqref="AD1:AD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -13104,10 +13101,10 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -14008,7 +14005,7 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -14903,11 +14900,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543A4BED-4BDE-4A28-B8F8-B14A2F15873B}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
